--- a/02_MasterWifoMannheim/99_Backup/Course67.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course67.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD3D0DB4B639A2011591310756F9BFEB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6FB2C7-DBF6-4073-9BA7-077FDCDF4579}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>FIN 540 Corporate Finance I - Lecture (Capital Structure, Cost of Capital and Valuation)</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Corporate part of the curriculum is on shareholder value and company valuation. We will also study the cost of capital, introduce theories of capital structure, and initial public offerings. The objective of this course is to introduce the fundamental theoretical concepts of company valuation.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After completing this course, students will know and understand state-of-the-art tools such as DCF, Residual Income, EVA, and Multiples. determine the cost of capital for corporations and projects using real world data. participants will learn how to identify value drivers by applying financial ratio analysis. Students will also be familiar with event studies in order to analyse how capital markets react to important corporate events like merger announcements or earnings announcements.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 8</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Ernst Maug, Ph.D.</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>and Insurance (FIN), Accounting and Taxation (AAT),  Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FIN 540 Corporate Finance I - Lecture (Capital Structure, Cost of Capital and Valuation)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Corporate part of the curriculum is on shareholder value and company valuation. We will also study the cost of capital, introduce theories of capital structure, and initial public offerings. The objective of this course is to introduce the fundamental theoretical concepts of company valuation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After completing this course, students will know and understand state-of-the-art tools such as DCF, Residual Income, EVA, and Multiples. determine the cost of capital for corporations and projects using real world data. participants will learn how to identify value drivers by applying financial ratio analysis. Students will also be familiar with event studies in order to analyse how capital markets react to important corporate events like merger announcements or earnings announcements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>and Insurance (FIN), Accounting and Taxation (AAT),  Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Ernst Maug, Ph.D.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
